--- a/項目完了表.xlsx
+++ b/項目完了表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>c</t>
     <phoneticPr fontId="1"/>
@@ -155,6 +155,23 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>カイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <rPh sb="0" eb="2">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/07/06 保留決定</t>
+    <rPh sb="11" eb="13">
+      <t>ホリュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -188,7 +205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,8 +224,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -489,20 +506,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -513,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -527,7 +544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -541,7 +558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -555,7 +572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -569,7 +586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -583,7 +600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -597,11 +614,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
@@ -610,22 +627,25 @@
       <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -633,7 +653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -641,12 +661,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/項目完了表.xlsx
+++ b/項目完了表.xlsx
@@ -19,13 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>javascript</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -135,10 +131,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>済み</t>
     <rPh sb="0" eb="1">
       <t>ズ</t>
@@ -173,6 +165,41 @@
     <rPh sb="13" eb="15">
       <t>ケッテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改良中</t>
+    <rPh sb="0" eb="3">
+      <t>カイリョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -506,17 +533,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -524,154 +551,176 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/項目完了表.xlsx
+++ b/項目完了表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>c</t>
     <phoneticPr fontId="1"/>
@@ -158,16 +158,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017/07/06 保留決定</t>
-    <rPh sb="11" eb="13">
-      <t>ホリュウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ヘッダ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -200,6 +190,64 @@
   </si>
   <si>
     <t>js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×(2017/07/06 保留決定)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制御</t>
+    <rPh sb="0" eb="2">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規表現</t>
+    <rPh sb="0" eb="2">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -533,31 +581,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -570,8 +621,14 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -584,8 +641,14 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -598,8 +661,14 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -612,8 +681,14 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -626,8 +701,14 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -641,7 +722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -652,18 +733,15 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -672,21 +750,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -694,7 +772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -704,10 +782,10 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2">

--- a/項目完了表.xlsx
+++ b/項目完了表.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="形最適化" sheetId="1" r:id="rId1"/>
+    <sheet name="コード化" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
   <si>
     <t>c</t>
     <phoneticPr fontId="1"/>
@@ -185,10 +186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -239,15 +236,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし、flexの場合は○でも改良の余地あり</t>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの形が最適に改良できているかどうか</t>
+    <rPh sb="5" eb="6">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイテキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -584,7 +627,236 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -599,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -622,10 +894,10 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -642,7 +914,7 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
         <v>38</v>
@@ -662,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
         <v>40</v>
@@ -682,10 +954,10 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -702,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -733,7 +1005,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -755,13 +1027,18 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="G13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8">
